--- a/euler346/euler346.xlsx
+++ b/euler346/euler346.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABB0431-DCCE-4EF0-90F7-7F46E86F9331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="690" windowWidth="21465" windowHeight="11610"/>
+    <workbookView minimized="1" xWindow="444" yWindow="336" windowWidth="21468" windowHeight="11604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -108,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -228,7 +219,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -303,6 +294,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -338,6 +346,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -513,79 +538,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
-    <col min="2" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" customWidth="1"/>
-    <col min="12" max="12" width="4.5" customWidth="1"/>
-    <col min="13" max="13" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="8" max="9" width="3.77734375" customWidth="1"/>
+    <col min="10" max="10" width="3.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.44140625" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N2" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="K4" s="1"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8">
+      <c r="D5" s="8">
         <v>3</v>
       </c>
-      <c r="D5" s="8">
+      <c r="E5" s="8">
         <v>4</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="8">
         <v>5</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>6</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="8">
         <v>7</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>8</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J5" s="8">
         <v>9</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>10</v>
-      </c>
-      <c r="K5" s="8">
-        <v>11</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -625,39 +646,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5">
+      <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>5</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>6</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>7</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>8</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>9</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>10</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <v>11</v>
-      </c>
-      <c r="K7" s="5">
-        <v>12</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5">
@@ -670,39 +691,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>111</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5">
+      <c r="C8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="5">
         <v>13</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>21</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <v>31</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>43</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>57</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>73</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>91</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>111</v>
-      </c>
-      <c r="K8" s="5">
-        <v>133</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="7">
@@ -715,39 +736,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1111</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5">
+      <c r="C9" s="5">
         <v>15</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
         <v>40</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>85</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>156</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>259</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>400</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>585</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>820</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="5">
         <v>1111</v>
-      </c>
-      <c r="K9" s="5">
-        <v>1464</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -758,39 +779,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11111</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6">
+      <c r="C10" s="6">
         <v>31</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="5">
         <v>121</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>341</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>781</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>1555</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>2801</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>4681</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>7381</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>11111</v>
-      </c>
-      <c r="K10" s="5">
-        <v>16105</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -798,305 +819,285 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>111111</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5">
+      <c r="C11" s="5">
         <v>63</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D11" s="5">
         <v>364</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="5">
         <v>1365</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>3906</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>9331</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>19608</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>37449</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <v>66430</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="5">
         <v>111111</v>
-      </c>
-      <c r="K11" s="5">
-        <v>177156</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1111111</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5">
+      <c r="C12" s="5">
         <v>127</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="5">
         <v>1093</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>5461</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>19531</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>55987</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>137257</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>299593</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <v>597871</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>1111111</v>
-      </c>
-      <c r="K12" s="5">
-        <v>1948717</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5">
+      <c r="C13" s="5">
         <v>255</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D13" s="5">
         <v>3280</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>21845</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>97656</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>335923</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>960800</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>2396745</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="5">
         <v>5380840</v>
       </c>
-      <c r="J13" s="5">
+      <c r="K13" s="5">
         <v>11111111</v>
-      </c>
-      <c r="K13" s="5">
-        <v>21435888</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5">
+      <c r="C14" s="5">
         <v>511</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D14" s="5">
         <v>9841</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <v>87381</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>488281</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>2015539</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <v>6725601</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>19173961</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="5">
         <v>48427561</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K14" s="5">
         <v>111111111</v>
-      </c>
-      <c r="K14" s="5">
-        <v>235794769</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="5">
+      <c r="C15" s="5">
         <v>1023</v>
       </c>
-      <c r="C15" s="5">
+      <c r="D15" s="5">
         <v>29524</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="5">
         <v>349525</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>2441406</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>12093235</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <v>47079208</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="5">
         <v>153391689</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J15" s="5">
         <v>435848050</v>
       </c>
-      <c r="J15" s="5">
+      <c r="K15" s="5">
         <v>1111111111</v>
-      </c>
-      <c r="K15" s="5">
-        <v>2593742460</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="5">
+      <c r="C16" s="5">
         <v>2047</v>
       </c>
-      <c r="C16" s="5">
+      <c r="D16" s="5">
         <v>88573</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="5">
         <v>1398101</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
         <v>12207031</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>72559411</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H16" s="5">
         <v>329554457</v>
       </c>
-      <c r="H16" s="5">
+      <c r="I16" s="5">
         <v>1227133513</v>
       </c>
-      <c r="I16" s="5">
+      <c r="J16" s="5">
         <v>3922632451</v>
       </c>
-      <c r="J16" s="5">
+      <c r="K16" s="5">
         <v>11111111111</v>
-      </c>
-      <c r="K16" s="5">
-        <v>28531167061</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="5">
+      <c r="C17" s="5">
         <v>4095</v>
       </c>
-      <c r="C17" s="5">
+      <c r="D17" s="5">
         <v>265720</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="5">
         <v>5592405</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5">
         <v>61035156</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>435356467</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <v>2306881200</v>
       </c>
-      <c r="H17" s="5">
+      <c r="I17" s="5">
         <v>9817068105</v>
       </c>
-      <c r="I17" s="5">
+      <c r="J17" s="5">
         <v>35303692060</v>
       </c>
-      <c r="J17" s="5">
+      <c r="K17" s="5">
         <v>111111111111</v>
-      </c>
-      <c r="K17" s="5">
-        <v>313842837672</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="7">
+      <c r="C18" s="7">
         <v>8191</v>
       </c>
-      <c r="C18" s="5">
+      <c r="D18" s="5">
         <v>797161</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
         <v>22369621</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5">
         <v>305175781</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>2612138803</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <v>16148168401</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="5">
         <v>78536544841</v>
       </c>
-      <c r="I18" s="5">
+      <c r="J18" s="5">
         <v>317733228541</v>
       </c>
-      <c r="J18" s="5">
+      <c r="K18" s="5">
         <v>1111111111111</v>
-      </c>
-      <c r="K18" s="5">
-        <v>3452271214393</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="O19" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
